--- a/biology/Histoire de la zoologie et de la botanique/Hermann_von_Meyer/Hermann_von_Meyer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_von_Meyer/Hermann_von_Meyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Erich Hermann von Meyer, plus connu sous le nom de Hermann von Meyer[1], était un géologue et paléontologue allemand, né le 3 septembre 1801 à Francfort-sur-le-Main, mort le 21 avril 1869.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Erich Hermann von Meyer, plus connu sous le nom de Hermann von Meyer, était un géologue et paléontologue allemand, né le 3 septembre 1801 à Francfort-sur-le-Main, mort le 21 avril 1869.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1832 il publie un ouvrage nommé Palaeologica ainsi qu'une série de mémoires sur des restes fossiles variés : mollusques, crustacés, poissons et vertébrés supérieurs. À ce titre, il est responsable de la première description de  Teratosaurus, du fameux Archaeopteryx lithographica (1861), du ptérosaure Rhamphorhynchus et du dinosaure Plateosaurus.
 Ses recherches les plus élaborées concernent les amphibiens du Carbonifère, les reptiles du Permien, les reptiles et les amphibiens du Trias et les fossiles du calcaire lithographique. Ces résultats ont été publiés dans Zur Fauna der Vorwelt (1845-1860) abondamment illustrés par des gravures.
@@ -548,7 +562,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pipistrellus minahassae 1899
 Myzomèle vermillon 1874
@@ -580,7 +596,9 @@
           <t>Genres créés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Goniosaurus 1860 avec son espèce type † Goniosaurus binskhorsti 1860
 † Tanystropheus 1852
@@ -613,7 +631,9 @@
           <t>Familles créées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cyamodontidae 1863</t>
         </is>
